--- a/assignment/assignment2/评分标准.xlsx
+++ b/assignment/assignment2/评分标准.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZY\Documents\GitHub\CS209A-Labs\src\main\java\assignment\24fall\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9560"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,31 +38,26 @@
     <t>GUI/游戏逻辑部分</t>
   </si>
   <si>
-    <t>服务端客户端</t>
-  </si>
-  <si>
-    <t>异常处理</t>
-  </si>
-  <si>
-    <t>账号管理系统，要求用户可以注册和登录账号，并查看自己和他人的游戏历史、是否在线等信息。</t>
-  </si>
-  <si>
-    <t>连接服务器后，玩家可以看到当前等待匹配的玩家列表。玩家可以从玩家列表中选择对手开始新游戏。</t>
-  </si>
-  <si>
-    <t>客户端在等待匹配的过程中异常关闭，服务器能以合理的方式处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器异常关闭时，客户端们能检测到，并以合理的方式处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个客户端在游戏进行时异常关闭时，服务器能通知到另外一个客户端，并用合理的方式处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>棋盘图标是否随机、成对出现，是否可以自定义棋盘大小。</t>
+  </si>
+  <si>
+    <t>连线是否符合不超过三条直线，游戏过程中选择格子能够显示，连线能够显示，连线成功线和格子消失、连线失败提示。</t>
+  </si>
+  <si>
+    <t>是否有计分板，并及时更新得分。得分规则是否符合逻辑（可自行设计），游戏结束结果的展示。</t>
+  </si>
+  <si>
+    <t>是否严格使用javafx，若使用其他框架，GUI部分0分</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>否则-</t>
     </r>
     <r>
@@ -75,88 +65,84 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>15</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棋盘图标是否随机、成对出现，是否可以自定义棋盘大小。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端客户端</t>
+  </si>
+  <si>
+    <t>服务器接收到一个用户的双人游戏申请，将其加入等待队列，服务器通知给客户端，客户端能收到信息，界面有明确提示进入等待状态的标识。</t>
+  </si>
+  <si>
+    <t>服务器接收到另一个用户的双人游戏申请，将两个玩家成功匹配，通知给两个客户端，两个客户端收到成功匹配信息，并在界面有明确提示进入匹配状态。</t>
   </si>
   <si>
     <t>服务器能将随机生成的棋盘同步给两个客户端，客户端界面上能正确呈现。服务器将初始棋盘发给客户端前应先检查棋盘是否存在连线。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连线是否符合不超过三条直线，游戏过程中选择格子能够显示，连线能够显示，连线成功线和格子消失、连线失败提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有计分板，并及时更新得分。得分规则是否符合逻辑（可自行设计），游戏结束结果的展示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否严格使用javafx，若使用其他框架，GUI部分0分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器接收到一个用户的双人游戏申请，将其加入等待队列，服务器通知给客户端，客户端能收到信息，界面有明确提示进入等待状态的标识。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器接收到另一个用户的双人游戏申请，将两个玩家成功匹配，通知给两个客户端，两个客户端收到成功匹配信息，并在界面有明确提示进入匹配状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>偶数个客户端（4个,6个等）发起双人游戏申请，服务器收到多个客户端游戏申请，两两配对，偶数个客户端显示收到成功匹配信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奇数个客户端（5个,7个等）发起双人游戏申请，服务器收到多个客户端游戏申请，两两配对，偶数个客户端提示收到成功匹配信息，剩余一个显示等待状态。此时再启动一个客户端发起双人游戏申请，能匹配成功进入匹配状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务器为每对客户端随机生成有效的棋盘并同步给相应的客户端，所有客户端的界面都应该要能正确呈现。服务器可以在一对客户端中随机挑一个作为先手方，也可自行设计。棋盘大小可由管理员设置或者随机挑一个客户端传来的设置（自行进行合理的设计）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前客户端点击两个图标，连接有效时，界面应该正确呈现连线、图标、计分等的变化，发消息给服务器，服务器跟踪结果，更新游戏状态（比如得分等），并且处理好与对手客户端的同步操作，比如对手客户端界面是否更新，是否可以开始操作等，将控制权交给对手客户端。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前客户端点击两个图标，连接无效时，界面正确反馈无效连接，发消息给服务器，服务器做好同步处理，并将控制权交接给另一客户端。注意：每个玩家只有一次机会，落子无悔。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>两个玩家在各自的回合进行连线操作，直至游戏结束。服务端应正确判断游戏结束，并将结果正确通知到双方客户端。双方客户端的界面正确呈现游戏结果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常处理</t>
+  </si>
+  <si>
+    <t>服务器异常关闭时，客户端们能检测到，并以合理的方式处理。</t>
+  </si>
+  <si>
+    <t>一个客户端在游戏进行时异常关闭时，服务器能通知到另外一个客户端，并用合理的方式处理。</t>
+  </si>
+  <si>
+    <t>客户端在等待匹配的过程中异常关闭，服务器能以合理的方式处理。</t>
   </si>
   <si>
     <t>当2个客户端都异常关闭，服务器应该解除该会话并记录log信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注：合理的方式可以是界面弹出错误提示信息或其他明显的提示方式。在console抛异常不计分。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>账号管理系统，要求用户可以注册和登录账号，并查看自己和他人的游戏历史、是否在线等信息。</t>
+  </si>
+  <si>
+    <t>连接服务器后，玩家可以看到当前等待匹配的玩家列表。玩家可以从玩家列表中选择对手开始新游戏。</t>
   </si>
   <si>
     <t>玩家在游戏中断后，可以重新连接到服务器并从之前的游戏状态和之前的对手继续游戏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bonus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,7 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,29 +162,355 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -205,184 +519,432 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,158 +954,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -554,7 +1047,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -582,40 +1075,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -865,225 +1472,225 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="109.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="109.090909090909" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+    <row r="9" ht="28" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+    <row r="11" ht="42" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
+    <row r="12" ht="42" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="13" ht="28" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+    <row r="14" ht="28" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C14" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9">
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9">
+    <row r="16" spans="1:3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9">
+    <row r="21" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="22" ht="14.75" spans="1:3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="C22" s="16">
         <v>5</v>
       </c>
     </row>
@@ -1091,11 +1698,11 @@
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A15:A19"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>